--- a/Extraccion/outputs/Registros_Fuente_POAI_2025.xlsx
+++ b/Extraccion/outputs/Registros_Fuente_POAI_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,11 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Col19</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Hoja</t>
         </is>
       </c>
@@ -588,7 +593,8 @@
       <c r="R2" t="n">
         <v>0.5</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
         <is>
           <t>POAI_2025</t>
         </is>
@@ -653,7 +659,8 @@
       <c r="R3" t="n">
         <v>0.25</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
         <is>
           <t>POAI_2025</t>
         </is>
@@ -716,7 +723,8 @@
       <c r="R4" t="n">
         <v>1</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
         <is>
           <t>POAI_2025</t>
         </is>
@@ -780,7 +788,8 @@
       <c r="R5" t="n">
         <v>1</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
         <is>
           <t>POAI_2025</t>
         </is>
@@ -827,7 +836,11 @@
           <t>FERNANDO FORERO</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>ANDREA GONZALEZ</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -839,7 +852,8 @@
       <c r="R6" t="n">
         <v>0</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
         <is>
           <t>POAI_2025</t>
         </is>
@@ -902,7 +916,8 @@
       <c r="R7" t="n">
         <v>0.5</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
         <is>
           <t>POAI_2025</t>
         </is>
@@ -946,8 +961,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>DIANA CABAL
-SARA DIANA URBANO</t>
+          <t>SARA DIANA URBANO</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -968,7 +982,8 @@
       <c r="R8" t="n">
         <v>0.5</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
         <is>
           <t>POAI_2025</t>
         </is>
@@ -1031,7 +1046,8 @@
       <c r="R9" t="n">
         <v>1</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
         <is>
           <t>POAI_2025</t>
         </is>
@@ -1094,7 +1110,8 @@
       <c r="R10" t="n">
         <v>1</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
         <is>
           <t>POAI_2025</t>
         </is>
@@ -1138,7 +1155,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>DIANA CABAL</t>
+          <t>LUZ MIRYAN Y WILLIAN MOSQUERA</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
@@ -1153,7 +1170,8 @@
       <c r="R11" t="n">
         <v>0.5</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
         <is>
           <t>POAI_2025</t>
         </is>
@@ -1212,7 +1230,8 @@
       <c r="R12" t="n">
         <v>0.75</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
         <is>
           <t>POAI_2025</t>
         </is>
@@ -1271,7 +1290,8 @@
       <c r="R13" t="n">
         <v>0</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
         <is>
           <t>POAI_2025</t>
         </is>
@@ -1326,7 +1346,8 @@
       <c r="R14" t="n">
         <v>0</v>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
         <is>
           <t>POAI_2025</t>
         </is>
@@ -1381,7 +1402,8 @@
       <c r="R15" t="n">
         <v>0</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
         <is>
           <t>POAI_2025</t>
         </is>
